--- a/데이터/rc_연구모형.xlsx
+++ b/데이터/rc_연구모형.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ERC\Documents\GitHub\PythonBasic\데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\PythonBasic\데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8CA7B3-C48A-4271-ABFA-E64766B2CCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="900" windowWidth="20175" windowHeight="13950" xr2:uid="{5E3DFB74-C447-4926-B84D-27B4BF7CE4A9}"/>
+    <workbookView xWindow="1515" yWindow="900" windowWidth="20175" windowHeight="13950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="28">
   <si>
     <t>수도권</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,21 +245,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -284,6 +274,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,11 +601,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FC1A8A-6413-4C9B-94B5-1AF813185D2C}">
-  <dimension ref="A1:O36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -619,22 +621,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
       <c r="I2" t="s">
         <v>17</v>
       </c>
@@ -643,29 +645,29 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="7" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
@@ -673,761 +675,815 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="6" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3">
+      <c r="C5" s="10"/>
+      <c r="D5" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="I5" s="2" t="s">
+      <c r="E5" s="1">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.879</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="I7" s="2" t="s">
+      <c r="D7" s="13">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="L7" s="1">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3" t="s">
+      <c r="D8" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="L8" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="M8" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3" t="s">
+      <c r="D9" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="L9" s="1">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3" t="s">
+      <c r="D10" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="L10" s="1">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="M10" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="I16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="I18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="3" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="I14" t="s">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
         <v>17</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="7" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G26" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="7" t="s">
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="6" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="6" t="s">
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O27" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="I17" s="2" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="I28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
+      <c r="K28" s="10"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="K29" s="10"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="I19" s="2" t="s">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="I30" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="3" t="s">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="3" t="s">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3" t="s">
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="3" t="s">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="12" t="s">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="12" t="s">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="3" t="s">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>2020</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="I29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="I31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="I7:I12"/>
-    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="I18:I23"/>
+    <mergeCell ref="J18:J22"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="J7:J10"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="A4:C4"/>
@@ -1438,34 +1494,6 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="I31:I36"/>
-    <mergeCell ref="J31:J35"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="I19:I24"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
